--- a/Coordinate Calculator.xlsx
+++ b/Coordinate Calculator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git Repos\data-MinecraftChallengeMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\data-MinecraftChallenge1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="ISLANDSPAWNS" sheetId="1" r:id="rId1"/>
     <sheet name="OTHER INFO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,12 +89,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,38 +410,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -485,708 +485,426 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>478.5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>-1067</v>
+      </c>
+      <c r="C3" s="1">
         <v>58</v>
       </c>
-      <c r="D3" s="2">
-        <v>287.5</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>-383</v>
+      </c>
+      <c r="E3" s="1">
         <f>B3+10</f>
-        <v>488.5</v>
-      </c>
-      <c r="F3" s="2">
+        <v>-1057</v>
+      </c>
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>D3+19</f>
-        <v>306.5</v>
-      </c>
-      <c r="H3" s="2">
+        <v>-364</v>
+      </c>
+      <c r="H3" s="1">
         <f>E3-42</f>
-        <v>446.5</v>
-      </c>
-      <c r="I3" s="2">
+        <v>-1099</v>
+      </c>
+      <c r="I3" s="1">
         <v>83</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <f>G3+4</f>
-        <v>310.5</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K16" si="0">B3+41</f>
-        <v>519.5</v>
-      </c>
-      <c r="L3" s="2">
+        <v>-360</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="0">B3+41</f>
+        <v>-1026</v>
+      </c>
+      <c r="L3" s="1">
         <v>76</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M16" si="1">D3+71</f>
-        <v>358.5</v>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="1">D3+71</f>
+        <v>-312</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>174.5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>-764</v>
+      </c>
+      <c r="C4" s="1">
         <v>58</v>
       </c>
-      <c r="D4" s="2">
-        <v>287.5</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E17" si="2">B4+10</f>
-        <v>184.5</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="1">
+        <v>-383</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E9" si="2">B4+10</f>
+        <v>-754</v>
+      </c>
+      <c r="F4" s="1">
         <v>65</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G17" si="3">D4+19</f>
-        <v>306.5</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H17" si="4">E4-42</f>
-        <v>142.5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G9" si="3">D4+19</f>
+        <v>-364</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H9" si="4">E4-42</f>
+        <v>-796</v>
+      </c>
+      <c r="I4" s="1">
         <v>84</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J17" si="5">G4+4</f>
-        <v>310.5</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J9" si="5">G4+4</f>
+        <v>-360</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>215.5</v>
-      </c>
-      <c r="L4" s="2">
+        <v>-723</v>
+      </c>
+      <c r="L4" s="1">
         <v>77</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>358.5</v>
+        <v>-312</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>174.5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>-459</v>
+      </c>
+      <c r="C5" s="1">
         <v>58</v>
       </c>
-      <c r="D5" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>-383</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>184.5</v>
-      </c>
-      <c r="F5" s="2">
+        <v>-449</v>
+      </c>
+      <c r="F5" s="1">
         <v>66</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-      <c r="H5" s="2">
+        <v>-364</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="4"/>
-        <v>142.5</v>
-      </c>
-      <c r="I5" s="2">
+        <v>-491</v>
+      </c>
+      <c r="I5" s="1">
         <v>85</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="5"/>
-        <v>38.5</v>
-      </c>
-      <c r="K5" s="2">
+        <v>-360</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>215.5</v>
-      </c>
-      <c r="L5" s="2">
+        <v>-418</v>
+      </c>
+      <c r="L5" s="1">
         <v>78</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>86.5</v>
+        <v>-312</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>478.5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>-1067</v>
+      </c>
+      <c r="C6" s="1">
         <v>58</v>
       </c>
-      <c r="D6" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>-111</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>488.5</v>
-      </c>
-      <c r="F6" s="2">
+        <v>-1057</v>
+      </c>
+      <c r="F6" s="1">
         <v>67</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-      <c r="H6" s="2">
+        <v>-92</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
-        <v>446.5</v>
-      </c>
-      <c r="I6" s="2">
+        <v>-1099</v>
+      </c>
+      <c r="I6" s="1">
         <v>86</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="5"/>
-        <v>38.5</v>
-      </c>
-      <c r="K6" s="2">
+        <v>-88</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>519.5</v>
-      </c>
-      <c r="L6" s="2">
+        <v>-1026</v>
+      </c>
+      <c r="L6" s="1">
         <v>79</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>86.5</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>478.5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>-764</v>
+      </c>
+      <c r="C7" s="1">
         <v>58</v>
       </c>
-      <c r="D7" s="2">
-        <v>559.5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>-111</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>488.5</v>
-      </c>
-      <c r="F7" s="2">
+        <v>-754</v>
+      </c>
+      <c r="F7" s="1">
         <v>68</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>578.5</v>
-      </c>
-      <c r="H7" s="2">
+        <v>-92</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
-        <v>446.5</v>
-      </c>
-      <c r="I7" s="2">
+        <v>-796</v>
+      </c>
+      <c r="I7" s="1">
         <v>87</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="5"/>
-        <v>582.5</v>
-      </c>
-      <c r="K7" s="2">
+        <v>-88</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>519.5</v>
-      </c>
-      <c r="L7" s="2">
+        <v>-723</v>
+      </c>
+      <c r="L7" s="1">
         <v>80</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>630.5</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>174.5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>-459</v>
+      </c>
+      <c r="C8" s="1">
         <v>58</v>
       </c>
-      <c r="D8" s="2">
-        <v>559.5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>-111</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>184.5</v>
-      </c>
-      <c r="F8" s="2">
+        <v>-449</v>
+      </c>
+      <c r="F8" s="1">
         <v>69</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>578.5</v>
-      </c>
-      <c r="H8" s="2">
+        <v>-92</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>142.5</v>
-      </c>
-      <c r="I8" s="2">
+        <v>-491</v>
+      </c>
+      <c r="I8" s="1">
         <v>88</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="5"/>
-        <v>582.5</v>
-      </c>
-      <c r="K8" s="2">
+        <v>-88</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>215.5</v>
-      </c>
-      <c r="L8" s="2">
+        <v>-418</v>
+      </c>
+      <c r="L8" s="1">
         <v>81</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>630.5</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>-129.5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>-1067</v>
+      </c>
+      <c r="C9" s="1">
         <v>58</v>
       </c>
-      <c r="D9" s="2">
-        <v>559.5</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>-119.5</v>
-      </c>
-      <c r="F9" s="2">
+        <v>-1057</v>
+      </c>
+      <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>578.5</v>
-      </c>
-      <c r="H9" s="2">
+        <v>179</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
-        <v>-161.5</v>
-      </c>
-      <c r="I9" s="2">
+        <v>-1099</v>
+      </c>
+      <c r="I9" s="1">
         <v>89</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="5"/>
-        <v>582.5</v>
-      </c>
-      <c r="K9" s="2">
+        <v>183</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>-88.5</v>
-      </c>
-      <c r="L9" s="2">
+        <v>-1026</v>
+      </c>
+      <c r="L9" s="1">
         <v>82</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>630.5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>-129.5</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>-764</v>
+      </c>
+      <c r="C10" s="1">
         <v>58</v>
       </c>
-      <c r="D10" s="2">
-        <v>287.5</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>-119.5</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="1">
+        <v>160</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E11" si="6">B10+10</f>
+        <v>-754</v>
+      </c>
+      <c r="F10" s="1">
         <v>71</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>306.5</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="4"/>
-        <v>-161.5</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G11" si="7">D10+19</f>
+        <v>179</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H11" si="8">E10-42</f>
+        <v>-796</v>
+      </c>
+      <c r="I10" s="1">
         <v>90</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="5"/>
-        <v>310.5</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>-88.5</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="J10" s="1">
+        <f t="shared" ref="J10:J11" si="9">G10+4</f>
+        <v>183</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10:K11" si="10">B10+41</f>
+        <v>-723</v>
+      </c>
+      <c r="L10" s="1">
         <v>83</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>358.5</v>
+      <c r="M10" s="1">
+        <f t="shared" ref="M10:M11" si="11">D10+71</f>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>-129.5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11">
+        <v>-459</v>
+      </c>
+      <c r="C11">
         <v>58</v>
       </c>
-      <c r="D11" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>-119.5</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="6"/>
+        <v>-449</v>
+      </c>
+      <c r="F11" s="1">
         <v>72</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="4"/>
-        <v>-161.5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="1">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="8"/>
+        <v>-491</v>
+      </c>
+      <c r="I11" s="1">
         <v>91</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="5"/>
-        <v>38.5</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>-88.5</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="J11" s="1">
+        <f t="shared" si="9"/>
+        <v>183</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="10"/>
+        <v>-418</v>
+      </c>
+      <c r="L11" s="1">
         <v>84</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-129.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-256.5</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>-119.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-237.5</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="4"/>
-        <v>-161.5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>92</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="5"/>
-        <v>-233.5</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>-88.5</v>
-      </c>
-      <c r="L12" s="2">
-        <v>85</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>-185.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>174.5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-256.5</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>74</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-237.5</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="4"/>
-        <v>142.5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>93</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>-233.5</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>215.5</v>
-      </c>
-      <c r="L13" s="2">
-        <v>86</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>-185.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>478.5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-256.5</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
-        <v>488.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>-237.5</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="4"/>
-        <v>446.5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>94</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="5"/>
-        <v>-233.5</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>519.5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>87</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>-185.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>782.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-256.5</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>792.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>-237.5</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="4"/>
-        <v>750.5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>95</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="5"/>
-        <v>-233.5</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>823.5</v>
-      </c>
-      <c r="L15" s="2">
-        <v>88</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>-185.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>782.5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
-        <v>792.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="4"/>
-        <v>750.5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>96</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="5"/>
-        <v>38.5</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>823.5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>89</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>782.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2">
-        <v>287.5</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>792.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>78</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>306.5</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="4"/>
-        <v>750.5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>97</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="5"/>
-        <v>310.5</v>
-      </c>
-      <c r="K17" s="2">
-        <f>B17+41</f>
-        <v>823.5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>90</v>
-      </c>
-      <c r="M17" s="2">
-        <f>D17+71</f>
-        <v>358.5</v>
+      <c r="M11" s="1">
+        <f t="shared" si="11"/>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
